--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.012320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.012320.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3835,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4213,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4297,12 +4297,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5683,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7197,12 +7197,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7533,12 +7533,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7827,12 +7827,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8121,12 +8121,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8629,12 +8629,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8671,12 +8671,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9729,12 +9729,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9855,12 +9855,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10527,12 +10527,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11287,12 +11287,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11837,12 +11837,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12047,12 +12047,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12639,12 +12639,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13941,12 +13941,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14067,12 +14067,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14361,12 +14361,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14403,12 +14403,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14445,12 +14445,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14907,12 +14907,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15415,12 +15415,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16137,12 +16137,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18665,12 +18665,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19719,12 +19719,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19887,12 +19887,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19933,12 +19933,12 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20101,12 +20101,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20521,12 +20521,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20605,12 +20605,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21109,12 +21109,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21323,12 +21323,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21407,12 +21407,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -21667,12 +21667,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21793,12 +21793,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22381,12 +22381,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22465,12 +22465,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22511,12 +22511,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22637,12 +22637,12 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23015,12 +23015,12 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23141,12 +23141,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23351,12 +23351,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23393,12 +23393,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23561,12 +23561,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24027,12 +24027,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24069,12 +24069,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24111,12 +24111,12 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24367,12 +24367,12 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24745,12 +24745,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24787,12 +24787,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25085,12 +25085,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25211,12 +25211,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25379,12 +25379,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25967,12 +25967,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26353,12 +26353,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26395,12 +26395,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26479,12 +26479,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26563,12 +26563,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26693,12 +26693,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27155,12 +27155,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27449,12 +27449,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27827,12 +27827,12 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27995,12 +27995,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
